--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam9-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam9-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H2">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I2">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J2">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>63.127410921255</v>
+        <v>234.644525244129</v>
       </c>
       <c r="R2">
-        <v>568.146698291295</v>
+        <v>2111.800727197161</v>
       </c>
       <c r="S2">
-        <v>0.001651016930708333</v>
+        <v>0.004951798154820474</v>
       </c>
       <c r="T2">
-        <v>0.001651016930708333</v>
+        <v>0.004951798154820475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H3">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I3">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J3">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>450.5584834442849</v>
+        <v>922.6657031728803</v>
       </c>
       <c r="R3">
-        <v>4055.026350998565</v>
+        <v>8303.991328555923</v>
       </c>
       <c r="S3">
-        <v>0.01178378256901267</v>
+        <v>0.01947138686374239</v>
       </c>
       <c r="T3">
-        <v>0.01178378256901267</v>
+        <v>0.0194713868637424</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H4">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I4">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J4">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>440.60304924999</v>
+        <v>854.01132339523</v>
       </c>
       <c r="R4">
-        <v>3965.42744324991</v>
+        <v>7686.10191055707</v>
       </c>
       <c r="S4">
-        <v>0.01152341088312432</v>
+        <v>0.01802254576783526</v>
       </c>
       <c r="T4">
-        <v>0.01152341088312432</v>
+        <v>0.01802254576783527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H5">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I5">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J5">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>128.52115082826</v>
+        <v>221.819460217355</v>
       </c>
       <c r="R5">
-        <v>1156.69035745434</v>
+        <v>1996.375141956195</v>
       </c>
       <c r="S5">
-        <v>0.003361306805949363</v>
+        <v>0.004681145629393094</v>
       </c>
       <c r="T5">
-        <v>0.003361306805949363</v>
+        <v>0.004681145629393095</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H6">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I6">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J6">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>191.268283885815</v>
+        <v>427.4129399816943</v>
       </c>
       <c r="R6">
-        <v>1721.414554972335</v>
+        <v>3846.716459835248</v>
       </c>
       <c r="S6">
-        <v>0.005002378054074175</v>
+        <v>0.009019867841986667</v>
       </c>
       <c r="T6">
-        <v>0.005002378054074175</v>
+        <v>0.009019867841986669</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H7">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I7">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J7">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>503.470438817325</v>
+        <v>1158.098174838939</v>
       </c>
       <c r="R7">
-        <v>4531.233949355926</v>
+        <v>10422.88357355045</v>
       </c>
       <c r="S7">
-        <v>0.01316762728690778</v>
+        <v>0.02443981337004112</v>
       </c>
       <c r="T7">
-        <v>0.01316762728690778</v>
+        <v>0.02443981337004112</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>130.276527</v>
       </c>
       <c r="I8">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J8">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>434.3050438105196</v>
+        <v>788.304697918797</v>
       </c>
       <c r="R8">
-        <v>3908.745394294676</v>
+        <v>7094.742281269173</v>
       </c>
       <c r="S8">
-        <v>0.01135869458225734</v>
+        <v>0.0166359123211134</v>
       </c>
       <c r="T8">
-        <v>0.01135869458225734</v>
+        <v>0.01663591232111341</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>130.276527</v>
       </c>
       <c r="I9">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J9">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
         <v>3099.759978047604</v>
@@ -1013,10 +1013,10 @@
         <v>27897.83980242844</v>
       </c>
       <c r="S9">
-        <v>0.08107026932044722</v>
+        <v>0.06541548635627728</v>
       </c>
       <c r="T9">
-        <v>0.08107026932044725</v>
+        <v>0.06541548635627729</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>130.276527</v>
       </c>
       <c r="I10">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J10">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>3031.268411217794</v>
+        <v>2869.11078623239</v>
       </c>
       <c r="R10">
-        <v>27281.41570096014</v>
+        <v>25821.99707609151</v>
       </c>
       <c r="S10">
-        <v>0.07927895973248053</v>
+        <v>0.06054800333593782</v>
       </c>
       <c r="T10">
-        <v>0.07927895973248053</v>
+        <v>0.06054800333593784</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>130.276527</v>
       </c>
       <c r="I11">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J11">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>884.2020166274893</v>
+        <v>745.2179947400151</v>
       </c>
       <c r="R11">
-        <v>7957.818149647404</v>
+        <v>6706.961952660135</v>
       </c>
       <c r="S11">
-        <v>0.02312517618439045</v>
+        <v>0.01572663622751604</v>
       </c>
       <c r="T11">
-        <v>0.02312517618439045</v>
+        <v>0.01572663622751604</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>130.276527</v>
       </c>
       <c r="I12">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J12">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>1315.890818272456</v>
+        <v>1435.923673004106</v>
       </c>
       <c r="R12">
-        <v>11843.0173644521</v>
+        <v>12923.31305703696</v>
       </c>
       <c r="S12">
-        <v>0.03441544628911695</v>
+        <v>0.03030287703089156</v>
       </c>
       <c r="T12">
-        <v>0.03441544628911695</v>
+        <v>0.03030287703089156</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>130.276527</v>
       </c>
       <c r="I13">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J13">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>3463.784555660228</v>
+        <v>3890.711837094363</v>
       </c>
       <c r="R13">
-        <v>31174.06100094205</v>
+        <v>35016.40653384926</v>
       </c>
       <c r="S13">
-        <v>0.09059086793302286</v>
+        <v>0.08210726278747514</v>
       </c>
       <c r="T13">
-        <v>0.09059086793302289</v>
+        <v>0.08210726278747514</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H14">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I14">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J14">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>314.9255427681107</v>
+        <v>715.5931296550341</v>
       </c>
       <c r="R14">
-        <v>2834.329884912996</v>
+        <v>6440.338166895307</v>
       </c>
       <c r="S14">
-        <v>0.008236475968755368</v>
+        <v>0.015101450738479</v>
       </c>
       <c r="T14">
-        <v>0.008236475968755368</v>
+        <v>0.015101450738479</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H15">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I15">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J15">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>2247.714152643841</v>
+        <v>2813.844633587351</v>
       </c>
       <c r="R15">
-        <v>20229.42737379457</v>
+        <v>25324.60170228616</v>
       </c>
       <c r="S15">
-        <v>0.05878609731098948</v>
+        <v>0.05938169940275633</v>
       </c>
       <c r="T15">
-        <v>0.05878609731098949</v>
+        <v>0.05938169940275635</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H16">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I16">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J16">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>2198.049189811112</v>
+        <v>2604.470038384247</v>
       </c>
       <c r="R16">
-        <v>19782.44270830001</v>
+        <v>23440.23034545823</v>
       </c>
       <c r="S16">
-        <v>0.0574871735423255</v>
+        <v>0.05496318278441917</v>
       </c>
       <c r="T16">
-        <v>0.05748717354232551</v>
+        <v>0.0549631827844192</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H17">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I17">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J17">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>641.1571865708214</v>
+        <v>676.4806534061635</v>
       </c>
       <c r="R17">
-        <v>5770.414679137392</v>
+        <v>6088.32588065547</v>
       </c>
       <c r="S17">
-        <v>0.01676864859219705</v>
+        <v>0.01427604436039235</v>
       </c>
       <c r="T17">
-        <v>0.01676864859219705</v>
+        <v>0.01427604436039236</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H18">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I18">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J18">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>954.1856261490387</v>
+        <v>1303.477091819395</v>
       </c>
       <c r="R18">
-        <v>8587.670635341348</v>
+        <v>11731.29382637455</v>
       </c>
       <c r="S18">
-        <v>0.02495550824626273</v>
+        <v>0.02750780335235431</v>
       </c>
       <c r="T18">
-        <v>0.02495550824626273</v>
+        <v>0.02750780335235432</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H19">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I19">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J19">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>2511.677556521794</v>
+        <v>3531.840755792423</v>
       </c>
       <c r="R19">
-        <v>22605.09800869614</v>
+        <v>31786.56680213181</v>
       </c>
       <c r="S19">
-        <v>0.06568972352549599</v>
+        <v>0.0745338614632359</v>
       </c>
       <c r="T19">
-        <v>0.065689723525496</v>
+        <v>0.07453386146323593</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H20">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I20">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J20">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>112.8689221949646</v>
+        <v>162.660209839423</v>
       </c>
       <c r="R20">
-        <v>1015.820299754682</v>
+        <v>1463.941888554807</v>
       </c>
       <c r="S20">
-        <v>0.002951942726229322</v>
+        <v>0.003432684082901778</v>
       </c>
       <c r="T20">
-        <v>0.002951942726229322</v>
+        <v>0.003432684082901779</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H21">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I21">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J21">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>805.5779521132191</v>
+        <v>639.6100515603001</v>
       </c>
       <c r="R21">
-        <v>7250.201569018973</v>
+        <v>5756.490464042701</v>
       </c>
       <c r="S21">
-        <v>0.02106886404074673</v>
+        <v>0.01349794916299744</v>
       </c>
       <c r="T21">
-        <v>0.02106886404074673</v>
+        <v>0.01349794916299744</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H22">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I22">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J22">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>787.7780913064039</v>
+        <v>592.0174822923434</v>
       </c>
       <c r="R22">
-        <v>7090.002821757635</v>
+        <v>5328.15734063109</v>
       </c>
       <c r="S22">
-        <v>0.02060333138025219</v>
+        <v>0.01249358395806014</v>
       </c>
       <c r="T22">
-        <v>0.02060333138025219</v>
+        <v>0.01249358395806015</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H23">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I23">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J23">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>229.7899369156293</v>
+        <v>153.7696219755517</v>
       </c>
       <c r="R23">
-        <v>2068.109432240664</v>
+        <v>1383.926597779965</v>
       </c>
       <c r="S23">
-        <v>0.006009862765120375</v>
+        <v>0.003245062417602818</v>
       </c>
       <c r="T23">
-        <v>0.006009862765120375</v>
+        <v>0.003245062417602818</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H24">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I24">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J24">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>341.9789396907406</v>
+        <v>296.2910744803181</v>
       </c>
       <c r="R24">
-        <v>3077.810457216665</v>
+        <v>2666.619670322863</v>
       </c>
       <c r="S24">
-        <v>0.00894402306597674</v>
+        <v>0.006252750173373691</v>
       </c>
       <c r="T24">
-        <v>0.00894402306597674</v>
+        <v>0.006252750173373692</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H25">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I25">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J25">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N25">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q25">
-        <v>900.1821072184032</v>
+        <v>802.8164813901529</v>
       </c>
       <c r="R25">
-        <v>8101.638964965629</v>
+        <v>7225.348332511376</v>
       </c>
       <c r="S25">
-        <v>0.02354311507551276</v>
+        <v>0.0169421603468956</v>
       </c>
       <c r="T25">
-        <v>0.02354311507551277</v>
+        <v>0.0169421603468956</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H26">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I26">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J26">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N26">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q26">
-        <v>145.8096443735291</v>
+        <v>270.399059744512</v>
       </c>
       <c r="R26">
-        <v>1312.286799361762</v>
+        <v>2433.591537700608</v>
       </c>
       <c r="S26">
-        <v>0.00381346530782878</v>
+        <v>0.005706340532407404</v>
       </c>
       <c r="T26">
-        <v>0.00381346530782878</v>
+        <v>0.005706340532407406</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H27">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I27">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J27">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P27">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q27">
-        <v>1040.685358099615</v>
+        <v>1063.259150567794</v>
       </c>
       <c r="R27">
-        <v>9366.168222896535</v>
+        <v>9569.332355110146</v>
       </c>
       <c r="S27">
-        <v>0.02721779842841954</v>
+        <v>0.02243838714924086</v>
       </c>
       <c r="T27">
-        <v>0.02721779842841954</v>
+        <v>0.02243838714924086</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H28">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I28">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J28">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N28">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q28">
-        <v>1017.690619391497</v>
+        <v>984.1433914427733</v>
       </c>
       <c r="R28">
-        <v>9159.215574523476</v>
+        <v>8857.290522984962</v>
       </c>
       <c r="S28">
-        <v>0.02661640036107802</v>
+        <v>0.02076877534114563</v>
       </c>
       <c r="T28">
-        <v>0.02661640036107803</v>
+        <v>0.02076877534114564</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H29">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I29">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J29">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N29">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q29">
-        <v>296.8539818640916</v>
+        <v>255.6197440081067</v>
       </c>
       <c r="R29">
-        <v>2671.685836776824</v>
+        <v>2300.57769607296</v>
       </c>
       <c r="S29">
-        <v>0.007763837338698446</v>
+        <v>0.005394446665218734</v>
       </c>
       <c r="T29">
-        <v>0.007763837338698446</v>
+        <v>0.005394446665218735</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H30">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I30">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J30">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N30">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q30">
-        <v>441.7852727734118</v>
+        <v>492.5410340319858</v>
       </c>
       <c r="R30">
-        <v>3976.067454960706</v>
+        <v>4432.869306287872</v>
       </c>
       <c r="S30">
-        <v>0.0115543304317731</v>
+        <v>0.01039429230643846</v>
       </c>
       <c r="T30">
-        <v>0.0115543304317731</v>
+        <v>0.01039429230643846</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H31">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I31">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J31">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N31">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q31">
-        <v>1162.899674883092</v>
+        <v>1334.566222001038</v>
       </c>
       <c r="R31">
-        <v>10466.09707394783</v>
+        <v>12011.09599800934</v>
       </c>
       <c r="S31">
-        <v>0.03041415803258848</v>
+        <v>0.02816388981892866</v>
       </c>
       <c r="T31">
-        <v>0.03041415803258848</v>
+        <v>0.02816388981892866</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H32">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I32">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J32">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N32">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q32">
-        <v>286.8481266341711</v>
+        <v>740.1063863681452</v>
       </c>
       <c r="R32">
-        <v>2581.63313970754</v>
+        <v>6660.957477313306</v>
       </c>
       <c r="S32">
-        <v>0.007502146954921705</v>
+        <v>0.01561876389221371</v>
       </c>
       <c r="T32">
-        <v>0.007502146954921705</v>
+        <v>0.01561876389221371</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H33">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I33">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J33">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P33">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q33">
-        <v>2047.317560296309</v>
+        <v>2910.235296095791</v>
       </c>
       <c r="R33">
-        <v>18425.85804266678</v>
+        <v>26192.11766486212</v>
       </c>
       <c r="S33">
-        <v>0.05354497998978738</v>
+        <v>0.0614158704717579</v>
       </c>
       <c r="T33">
-        <v>0.05354497998978739</v>
+        <v>0.06141587047175791</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H34">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I34">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J34">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N34">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q34">
-        <v>2002.080513397213</v>
+        <v>2693.688394467817</v>
       </c>
       <c r="R34">
-        <v>18018.72462057492</v>
+        <v>24243.19555021036</v>
       </c>
       <c r="S34">
-        <v>0.05236186271575853</v>
+        <v>0.05684599377509152</v>
       </c>
       <c r="T34">
-        <v>0.05236186271575854</v>
+        <v>0.05684599377509154</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H35">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I35">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J35">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N35">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q35">
-        <v>583.9943506306755</v>
+        <v>699.6540786826085</v>
       </c>
       <c r="R35">
-        <v>5255.949155676079</v>
+        <v>6296.886708143476</v>
       </c>
       <c r="S35">
-        <v>0.01527362751391762</v>
+        <v>0.01476508251035721</v>
       </c>
       <c r="T35">
-        <v>0.01527362751391762</v>
+        <v>0.01476508251035721</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H36">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I36">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J36">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N36">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q36">
-        <v>869.1145116915577</v>
+        <v>1348.128818124861</v>
       </c>
       <c r="R36">
-        <v>7822.030605224019</v>
+        <v>12133.15936312375</v>
       </c>
       <c r="S36">
-        <v>0.02273058173282264</v>
+        <v>0.02845010676087795</v>
       </c>
       <c r="T36">
-        <v>0.02273058173282264</v>
+        <v>0.02845010676087795</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H37">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I37">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J37">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N37">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q37">
-        <v>2287.747114650122</v>
+        <v>3652.826991585805</v>
       </c>
       <c r="R37">
-        <v>20589.7240318511</v>
+        <v>32875.44292427225</v>
       </c>
       <c r="S37">
-        <v>0.05983310838104935</v>
+        <v>0.07708708284582315</v>
       </c>
       <c r="T37">
-        <v>0.05983310838104938</v>
+        <v>0.07708708284582315</v>
       </c>
     </row>
   </sheetData>
